--- a/CA/data/myData.xlsx
+++ b/CA/data/myData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iadt-my.sharepoint.com/personal/n00202054_iadt_ie/Documents/CreativeCoding2/CA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86A742AF-3AC4-4B87-8043-1691C4248433}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{977DC073-E411-465D-BAFC-E22C40A51822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FC4746FA-5DD7-4FB4-AB35-49FE999457F9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{71246784-967B-409A-B29B-CF7001D7DC53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="myData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
   <si>
     <t>Rank</t>
   </si>
@@ -322,19 +322,70 @@
   </si>
   <si>
     <t>ClimateIndex</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>middleEast</t>
+  </si>
+  <si>
+    <t>asia</t>
+  </si>
+  <si>
+    <t>america</t>
+  </si>
+  <si>
+    <t>africa</t>
+  </si>
+  <si>
+    <t>continent</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>#7172ad</t>
+  </si>
+  <si>
+    <t>#509ee3</t>
+  </si>
+  <si>
+    <t>#ef8c8c</t>
+  </si>
+  <si>
+    <t>#9cc177</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#00FF00	</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -367,6 +418,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,18 +736,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295737E4-8FAC-481B-AA38-E4D55F064ED4}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="12" width="13.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,8 +785,17 @@
       <c r="L1" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -769,8 +833,17 @@
         <f>1/J2*1000</f>
         <v>51.046452271567127</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -808,8 +881,17 @@
         <f t="shared" ref="L3:L66" si="0">1/J3*1000</f>
         <v>47.687172150691467</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -847,8 +929,17 @@
         <f t="shared" si="0"/>
         <v>39.888312724371758</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -886,8 +977,17 @@
         <f t="shared" si="0"/>
         <v>82.7129859387924</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -925,8 +1025,17 @@
         <f t="shared" si="0"/>
         <v>41.928721174004188</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -964,8 +1073,17 @@
         <f t="shared" si="0"/>
         <v>63.171193935565377</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1003,8 +1121,11 @@
         <f t="shared" si="0"/>
         <v>36.036036036036037</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1042,8 +1163,11 @@
         <f t="shared" si="0"/>
         <v>46.019328117809472</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1081,8 +1205,11 @@
         <f t="shared" si="0"/>
         <v>42.337002540220155</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1120,8 +1247,11 @@
         <f t="shared" si="0"/>
         <v>55.710306406685241</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1159,8 +1289,11 @@
         <f t="shared" si="0"/>
         <v>54.585152838427952</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1198,8 +1331,11 @@
         <f t="shared" si="0"/>
         <v>50.632911392405063</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1237,8 +1373,11 @@
         <f t="shared" si="0"/>
         <v>26.874496103198066</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1276,8 +1415,11 @@
         <f t="shared" si="0"/>
         <v>41.80602006688963</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1315,8 +1457,11 @@
         <f t="shared" si="0"/>
         <v>28.304557033682425</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1354,8 +1499,11 @@
         <f t="shared" si="0"/>
         <v>25.759917568263781</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1393,8 +1541,11 @@
         <f t="shared" si="0"/>
         <v>43.706293706293714</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1432,8 +1583,11 @@
         <f t="shared" si="0"/>
         <v>25.21432173474534</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1471,8 +1625,11 @@
         <f t="shared" si="0"/>
         <v>27.886224205242613</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1510,8 +1667,11 @@
         <f t="shared" si="0"/>
         <v>32.808398950131235</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1549,8 +1709,11 @@
         <f t="shared" si="0"/>
         <v>37.397157816005986</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1588,8 +1751,11 @@
         <f t="shared" si="0"/>
         <v>24.875621890547261</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1627,8 +1793,11 @@
         <f t="shared" si="0"/>
         <v>34.770514603616135</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1666,8 +1835,11 @@
         <f t="shared" si="0"/>
         <v>20.116676725005028</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1705,8 +1877,11 @@
         <f t="shared" si="0"/>
         <v>32.061558191728118</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1744,8 +1919,11 @@
         <f t="shared" si="0"/>
         <v>23.562676720075402</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1783,8 +1961,11 @@
         <f t="shared" si="0"/>
         <v>16.694490818030051</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1822,8 +2003,11 @@
         <f t="shared" si="0"/>
         <v>28.727377190462509</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1861,8 +2045,11 @@
         <f t="shared" si="0"/>
         <v>19.956096587507485</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1900,8 +2087,11 @@
         <f t="shared" si="0"/>
         <v>30.021014710297205</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1939,8 +2129,11 @@
         <f t="shared" si="0"/>
         <v>25.588536335721599</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1978,8 +2171,11 @@
         <f t="shared" si="0"/>
         <v>30.562347188264059</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2017,8 +2213,11 @@
         <f t="shared" si="0"/>
         <v>15.673981191222573</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2056,8 +2255,11 @@
         <f t="shared" si="0"/>
         <v>17.590149516270888</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2095,8 +2297,11 @@
         <f t="shared" si="0"/>
         <v>17.325017325017324</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2134,8 +2339,11 @@
         <f t="shared" si="0"/>
         <v>18.470631695603988</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2173,8 +2381,11 @@
         <f t="shared" si="0"/>
         <v>15.460729746444031</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2212,8 +2423,11 @@
         <f t="shared" si="0"/>
         <v>18.26817683595177</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2251,8 +2465,11 @@
         <f t="shared" si="0"/>
         <v>20.88118605136772</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2290,8 +2507,11 @@
         <f t="shared" si="0"/>
         <v>17.677214071062398</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2329,8 +2549,11 @@
         <f t="shared" si="0"/>
         <v>19.988007195682592</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2368,8 +2591,11 @@
         <f t="shared" si="0"/>
         <v>17.053206002728512</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2407,8 +2633,11 @@
         <f t="shared" si="0"/>
         <v>15.556938394523957</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2446,8 +2675,11 @@
         <f t="shared" si="0"/>
         <v>19.252984212552949</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2485,8 +2717,11 @@
         <f t="shared" si="0"/>
         <v>16.414970453053183</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2524,8 +2759,11 @@
         <f t="shared" si="0"/>
         <v>16.020506247997435</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2563,8 +2801,11 @@
         <f t="shared" si="0"/>
         <v>17.105713308244951</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2602,8 +2843,11 @@
         <f t="shared" si="0"/>
         <v>15.269506794930525</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2641,8 +2885,11 @@
         <f t="shared" si="0"/>
         <v>22.128789555211331</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2680,8 +2927,11 @@
         <f t="shared" si="0"/>
         <v>22.391401701746531</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2719,8 +2969,11 @@
         <f t="shared" si="0"/>
         <v>14.434180138568129</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2758,8 +3011,11 @@
         <f t="shared" si="0"/>
         <v>17.176228100309171</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2797,8 +3053,11 @@
         <f t="shared" si="0"/>
         <v>16.100466913540494</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2836,8 +3095,11 @@
         <f t="shared" si="0"/>
         <v>15.117157974300831</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2875,8 +3137,11 @@
         <f t="shared" si="0"/>
         <v>15.898251192368837</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2914,8 +3179,11 @@
         <f t="shared" si="0"/>
         <v>14.11631846414455</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2953,8 +3221,11 @@
         <f t="shared" si="0"/>
         <v>17.029972752043598</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2992,8 +3263,11 @@
         <f t="shared" si="0"/>
         <v>13.113034356150012</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3031,8 +3305,11 @@
         <f t="shared" si="0"/>
         <v>15.89572405023049</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3070,8 +3347,11 @@
         <f t="shared" si="0"/>
         <v>13.689253935660508</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3109,8 +3389,11 @@
         <f t="shared" si="0"/>
         <v>12.548625925461161</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3148,8 +3431,11 @@
         <f t="shared" si="0"/>
         <v>12.342631449024934</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3187,8 +3473,11 @@
         <f t="shared" si="0"/>
         <v>22.326412145568206</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3226,8 +3515,11 @@
         <f t="shared" si="0"/>
         <v>14.421690222094028</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3265,8 +3557,11 @@
         <f t="shared" si="0"/>
         <v>18.573551263001487</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3304,8 +3599,11 @@
         <f t="shared" ref="L67:L88" si="1">1/J67*1000</f>
         <v>19.535065442469232</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3343,8 +3641,11 @@
         <f t="shared" si="1"/>
         <v>12.41156758098548</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3382,8 +3683,11 @@
         <f t="shared" si="1"/>
         <v>13.458950201884253</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3421,8 +3725,11 @@
         <f t="shared" si="1"/>
         <v>15.878056525881233</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3460,8 +3767,11 @@
         <f t="shared" si="1"/>
         <v>16.181229773462785</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3499,8 +3809,11 @@
         <f t="shared" si="1"/>
         <v>13.574046423238768</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3538,8 +3851,11 @@
         <f t="shared" si="1"/>
         <v>13.241525423728815</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3577,8 +3893,11 @@
         <f t="shared" si="1"/>
         <v>12.732365673542143</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3616,8 +3935,11 @@
         <f t="shared" si="1"/>
         <v>11.20197154699227</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3655,8 +3977,11 @@
         <f t="shared" si="1"/>
         <v>14.799467219180112</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3694,8 +4019,11 @@
         <f t="shared" si="1"/>
         <v>13.623978201634875</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3733,8 +4061,11 @@
         <f t="shared" si="1"/>
         <v>14.421690222094028</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3772,8 +4103,11 @@
         <f t="shared" si="1"/>
         <v>14.887598630340925</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3811,8 +4145,11 @@
         <f t="shared" si="1"/>
         <v>11.693171188026193</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3850,8 +4187,11 @@
         <f t="shared" si="1"/>
         <v>11.956001912960305</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3889,8 +4229,11 @@
         <f t="shared" si="1"/>
         <v>13.631406761177754</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -3928,8 +4271,11 @@
         <f t="shared" si="1"/>
         <v>12.065637065637066</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -3967,8 +4313,11 @@
         <f t="shared" si="1"/>
         <v>13.266118333775539</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4006,8 +4355,11 @@
         <f t="shared" si="1"/>
         <v>16.616816218012627</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4045,8 +4397,11 @@
         <f t="shared" si="1"/>
         <v>11.766090128250383</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4084,8 +4439,11 @@
         <f t="shared" si="1"/>
         <v>13.262599469496021</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4122,6 +4480,9 @@
       <c r="L88" s="3">
         <f t="shared" si="1"/>
         <v>11.322463768115943</v>
+      </c>
+      <c r="M88" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4415,16 +4776,16 @@
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{468751CA-3B8D-488D-B6C7-A988BBB481E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="44079b54-96b0-4f53-8369-708b075222ec"/>
     <ds:schemaRef ds:uri="cc9d677c-d7fd-422a-b3cb-65f9dd38bac3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CA/data/myData.xlsx
+++ b/CA/data/myData.xlsx
@@ -1,41 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iadt-my.sharepoint.com/personal/n00202054_iadt_ie/Documents/CreativeCoding2/CA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED96E7F-4336-4E15-83CF-7C133AE91120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4391681-A367-4978-96F0-14C0243AF201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="2100" windowWidth="28755" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34935" yWindow="3525" windowWidth="28755" windowHeight="15285"/>
   </bookViews>
   <sheets>
     <sheet name="myData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">myData!$P$1:$Q$88</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="115">
   <si>
     <t>Rank</t>
   </si>
@@ -46,12 +31,21 @@
     <t>QualityofLifeIndex</t>
   </si>
   <si>
+    <t>PollutionIndex</t>
+  </si>
+  <si>
+    <t>SafetyIndex</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>PollIndex</t>
+  </si>
+  <si>
     <t>PurchasingPowerIndex</t>
   </si>
   <si>
-    <t>SafetyIndex</t>
-  </si>
-  <si>
     <t>HealthCareIndex</t>
   </si>
   <si>
@@ -64,231 +58,222 @@
     <t>TrafficCommuteTimeIndex</t>
   </si>
   <si>
-    <t>PollutionIndex</t>
-  </si>
-  <si>
     <t>ClimateIndex</t>
   </si>
   <si>
-    <t>PollIndex</t>
+    <t>colour</t>
   </si>
   <si>
     <t>continent</t>
   </si>
   <si>
-    <t>colour</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
     <t>Switzerland</t>
   </si>
   <si>
+    <t>#7172ad</t>
+  </si>
+  <si>
     <t>europe</t>
   </si>
   <si>
-    <t>#7172ad</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
     <t>america</t>
   </si>
   <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>asia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>africa</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>middleEast</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>#00FF00</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
     <t>#509ee3</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>asia</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>#ef8c8c</t>
   </si>
   <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>africa</t>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Bosnia And Herzegovina</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
   </si>
   <si>
     <t>#9cc177</t>
   </si>
   <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#00FF00	</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>middleEast</t>
-  </si>
-  <si>
-    <t>#FF0000</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>#00FF00</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Bosnia And Herzegovina</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
     <t>Panama</t>
   </si>
   <si>
@@ -380,18 +365,12 @@
   </si>
   <si>
     <t>Nigeria</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>legendColour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1225,20 +1204,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1249,54 +1224,51 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>195.27</v>
@@ -1308,7 +1280,6 @@
         <v>78.319999999999993</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F33" si="0">SUM(C2:E2)</f>
         <v>293.18</v>
       </c>
       <c r="H2">
@@ -1332,25 +1303,22 @@
       <c r="N2">
         <v>80.209999999999994</v>
       </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>192.36</v>
@@ -1362,7 +1330,6 @@
         <v>73.44</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
         <v>286.77</v>
       </c>
       <c r="H3">
@@ -1386,20 +1353,17 @@
       <c r="N3">
         <v>81.8</v>
       </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
       <c r="P3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1416,7 +1380,6 @@
         <v>72.12</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
         <v>282.57</v>
       </c>
       <c r="H4">
@@ -1440,25 +1403,22 @@
       <c r="N4">
         <v>87.11</v>
       </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
       <c r="P4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" t="s">
         <v>22</v>
       </c>
-      <c r="T4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>184.96</v>
@@ -1470,7 +1430,6 @@
         <v>72.75</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
         <v>269.8</v>
       </c>
       <c r="H5">
@@ -1494,25 +1453,22 @@
       <c r="N5">
         <v>56.64</v>
       </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
       <c r="P5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>183.81</v>
@@ -1524,7 +1480,6 @@
         <v>56.15</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
         <v>263.81</v>
       </c>
       <c r="H6">
@@ -1548,25 +1503,22 @@
       <c r="N6">
         <v>92.7</v>
       </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
       <c r="P6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>182.26</v>
@@ -1578,7 +1530,6 @@
         <v>76.47</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
         <v>274.56</v>
       </c>
       <c r="H7">
@@ -1602,25 +1553,22 @@
       <c r="N7">
         <v>68.81</v>
       </c>
+      <c r="O7" t="s">
+        <v>17</v>
+      </c>
       <c r="P7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>180.27</v>
@@ -1632,8 +1580,7 @@
         <v>63.63</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>271.65000000000003</v>
+        <v>271.64999999999998</v>
       </c>
       <c r="H8">
         <v>36.04</v>
@@ -1656,19 +1603,19 @@
       <c r="N8">
         <v>82.44</v>
       </c>
+      <c r="O8" t="s">
+        <v>17</v>
+      </c>
       <c r="P8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>179.16</v>
@@ -1680,7 +1627,6 @@
         <v>73.92</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
         <v>274.81</v>
       </c>
       <c r="H9">
@@ -1704,19 +1650,19 @@
       <c r="N9">
         <v>77.150000000000006</v>
       </c>
+      <c r="O9" t="s">
+        <v>17</v>
+      </c>
       <c r="P9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>176.81</v>
@@ -1728,7 +1674,6 @@
         <v>56.7</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
         <v>257.13</v>
       </c>
       <c r="H10">
@@ -1752,19 +1697,19 @@
       <c r="N10">
         <v>96.69</v>
       </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
       <c r="P10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>176.39</v>
@@ -1776,7 +1721,6 @@
         <v>66.150000000000006</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
         <v>260.49</v>
       </c>
       <c r="H11">
@@ -1800,19 +1744,19 @@
       <c r="N11">
         <v>68.680000000000007</v>
       </c>
+      <c r="O11" t="s">
+        <v>17</v>
+      </c>
       <c r="P11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>175.3</v>
@@ -1824,7 +1768,6 @@
         <v>51</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
         <v>244.62</v>
       </c>
       <c r="H12">
@@ -1848,19 +1791,19 @@
       <c r="N12">
         <v>74.92</v>
       </c>
+      <c r="O12" t="s">
+        <v>17</v>
+      </c>
       <c r="P12" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>174.19</v>
@@ -1872,7 +1815,6 @@
         <v>76.180000000000007</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
         <v>270.12</v>
       </c>
       <c r="H13">
@@ -1896,19 +1838,19 @@
       <c r="N13">
         <v>64.28</v>
       </c>
+      <c r="O13" t="s">
+        <v>17</v>
+      </c>
       <c r="P13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>173.68</v>
@@ -1920,8 +1862,7 @@
         <v>80.010000000000005</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>290.90000000000003</v>
+        <v>290.89999999999998</v>
       </c>
       <c r="H14">
         <v>26.87</v>
@@ -1944,19 +1885,19 @@
       <c r="N14">
         <v>67.22</v>
       </c>
+      <c r="O14" t="s">
+        <v>37</v>
+      </c>
       <c r="P14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>173.63</v>
@@ -1968,8 +1909,7 @@
         <v>64.290000000000006</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>261.84000000000003</v>
+        <v>261.83999999999997</v>
       </c>
       <c r="H15">
         <v>41.81</v>
@@ -1992,19 +1932,19 @@
       <c r="N15">
         <v>82.62</v>
       </c>
+      <c r="O15" t="s">
+        <v>17</v>
+      </c>
       <c r="P15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>170.72</v>
@@ -2016,7 +1956,6 @@
         <v>51.84</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
         <v>257.89</v>
       </c>
       <c r="H16">
@@ -2040,19 +1979,19 @@
       <c r="N16">
         <v>76.78</v>
       </c>
+      <c r="O16" t="s">
+        <v>40</v>
+      </c>
       <c r="P16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>169.48</v>
@@ -2064,8 +2003,7 @@
         <v>77.88</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>286.17999999999995</v>
+        <v>286.18</v>
       </c>
       <c r="H17">
         <v>25.76</v>
@@ -2088,19 +2026,19 @@
       <c r="N17">
         <v>85.27</v>
       </c>
+      <c r="O17" t="s">
+        <v>42</v>
+      </c>
       <c r="P17" t="s">
         <v>22</v>
       </c>
-      <c r="Q17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>169.04</v>
@@ -2112,7 +2050,6 @@
         <v>77.349999999999994</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
         <v>269.27</v>
       </c>
       <c r="H18">
@@ -2136,19 +2073,19 @@
       <c r="N18">
         <v>77.56</v>
       </c>
+      <c r="O18" t="s">
+        <v>17</v>
+      </c>
       <c r="P18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>168.48</v>
@@ -2160,7 +2097,6 @@
         <v>66.13</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
         <v>274.27</v>
       </c>
       <c r="H19">
@@ -2184,19 +2120,19 @@
       <c r="N19">
         <v>93.83</v>
       </c>
+      <c r="O19" t="s">
+        <v>17</v>
+      </c>
       <c r="P19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>162.63999999999999</v>
@@ -2208,7 +2144,6 @@
         <v>74.459999999999994</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
         <v>272.95999999999998</v>
       </c>
       <c r="H20">
@@ -2232,19 +2167,19 @@
       <c r="N20">
         <v>77.13</v>
       </c>
+      <c r="O20" t="s">
+        <v>17</v>
+      </c>
       <c r="P20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>162.52000000000001</v>
@@ -2256,7 +2191,6 @@
         <v>69.42</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
         <v>262.42</v>
       </c>
       <c r="H21">
@@ -2280,19 +2214,19 @@
       <c r="N21">
         <v>97.77</v>
       </c>
+      <c r="O21" t="s">
+        <v>17</v>
+      </c>
       <c r="P21" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>161.84</v>
@@ -2304,7 +2238,6 @@
         <v>66.72</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
         <v>255.3</v>
       </c>
       <c r="H22">
@@ -2328,19 +2261,19 @@
       <c r="N22">
         <v>67.760000000000005</v>
       </c>
+      <c r="O22" t="s">
+        <v>17</v>
+      </c>
       <c r="P22" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>161.74</v>
@@ -2352,7 +2285,6 @@
         <v>53.53</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
         <v>255.47</v>
       </c>
       <c r="H23">
@@ -2376,19 +2308,19 @@
       <c r="N23">
         <v>88.06</v>
       </c>
+      <c r="O23" t="s">
+        <v>17</v>
+      </c>
       <c r="P23" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24">
         <v>160.38</v>
@@ -2400,7 +2332,6 @@
         <v>57.05</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
         <v>246.19</v>
       </c>
       <c r="H24">
@@ -2424,19 +2355,19 @@
       <c r="N24">
         <v>55.98</v>
       </c>
+      <c r="O24" t="s">
+        <v>40</v>
+      </c>
       <c r="P24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>160.38</v>
@@ -2448,7 +2379,6 @@
         <v>84.86</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
         <v>294.95</v>
       </c>
       <c r="H25">
@@ -2472,19 +2402,19 @@
       <c r="N25">
         <v>45.23</v>
       </c>
+      <c r="O25" t="s">
+        <v>37</v>
+      </c>
       <c r="P25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26">
         <v>159.21</v>
@@ -2496,7 +2426,6 @@
         <v>75.87</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
         <v>266.27</v>
       </c>
       <c r="H26">
@@ -2520,19 +2449,19 @@
       <c r="N26">
         <v>89.05</v>
       </c>
+      <c r="O26" t="s">
+        <v>17</v>
+      </c>
       <c r="P26" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27">
         <v>156.65</v>
@@ -2544,7 +2473,6 @@
         <v>47.59</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
         <v>246.68</v>
       </c>
       <c r="H27">
@@ -2568,19 +2496,19 @@
       <c r="N27">
         <v>89.7</v>
       </c>
+      <c r="O27" t="s">
+        <v>17</v>
+      </c>
       <c r="P27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>154.53</v>
@@ -2592,7 +2520,6 @@
         <v>86.22</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
         <v>300.64999999999998</v>
       </c>
       <c r="H28">
@@ -2616,19 +2543,19 @@
       <c r="N28">
         <v>36.03</v>
       </c>
+      <c r="O28" t="s">
+        <v>37</v>
+      </c>
       <c r="P28" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>154.52000000000001</v>
@@ -2640,8 +2567,7 @@
         <v>54.52</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>243.85000000000002</v>
+        <v>243.85</v>
       </c>
       <c r="H29">
         <v>28.73</v>
@@ -2664,19 +2590,19 @@
       <c r="N29">
         <v>89.13</v>
       </c>
+      <c r="O29" t="s">
+        <v>17</v>
+      </c>
       <c r="P29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>151.86000000000001</v>
@@ -2688,8 +2614,7 @@
         <v>54.62</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>256.59000000000003</v>
+        <v>256.58999999999997</v>
       </c>
       <c r="H30">
         <v>19.96</v>
@@ -2712,19 +2637,19 @@
       <c r="N30">
         <v>86.03</v>
       </c>
+      <c r="O30" t="s">
+        <v>17</v>
+      </c>
       <c r="P30" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <v>151.59</v>
@@ -2736,7 +2661,6 @@
         <v>72.36</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
         <v>257.26</v>
       </c>
       <c r="H31">
@@ -2760,19 +2684,19 @@
       <c r="N31">
         <v>57.45</v>
       </c>
+      <c r="O31" t="s">
+        <v>42</v>
+      </c>
       <c r="P31" t="s">
         <v>22</v>
       </c>
-      <c r="Q31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <v>151.16</v>
@@ -2784,7 +2708,6 @@
         <v>69.819999999999993</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
         <v>260.06</v>
       </c>
       <c r="H32">
@@ -2808,19 +2731,19 @@
       <c r="N32">
         <v>78.13</v>
       </c>
+      <c r="O32" t="s">
+        <v>17</v>
+      </c>
       <c r="P32" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33">
         <v>150.81</v>
@@ -2832,7 +2755,6 @@
         <v>61.35</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
         <v>244.88</v>
       </c>
       <c r="H33">
@@ -2856,19 +2778,19 @@
       <c r="N33">
         <v>74.7</v>
       </c>
+      <c r="O33" t="s">
+        <v>17</v>
+      </c>
       <c r="P33" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34">
         <v>149.54</v>
@@ -2880,7 +2802,6 @@
         <v>75.28</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F65" si="1">SUM(C34:E34)</f>
         <v>288.62</v>
       </c>
       <c r="H34">
@@ -2904,19 +2825,19 @@
       <c r="N34">
         <v>45.98</v>
       </c>
+      <c r="O34" t="s">
+        <v>37</v>
+      </c>
       <c r="P34" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35">
         <v>147.1</v>
@@ -2928,7 +2849,6 @@
         <v>67.88</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
         <v>271.83</v>
       </c>
       <c r="H35">
@@ -2952,19 +2872,19 @@
       <c r="N35">
         <v>93.34</v>
       </c>
+      <c r="O35" t="s">
+        <v>17</v>
+      </c>
       <c r="P35" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36">
         <v>146.06</v>
@@ -2976,8 +2896,7 @@
         <v>67.88</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>271.65999999999997</v>
+        <v>271.66000000000003</v>
       </c>
       <c r="H36">
         <v>17.329999999999998</v>
@@ -3000,19 +2919,19 @@
       <c r="N36">
         <v>94.01</v>
       </c>
+      <c r="O36" t="s">
+        <v>37</v>
+      </c>
       <c r="P36" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37">
         <v>141.07</v>
@@ -3024,7 +2943,6 @@
         <v>54.8</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
         <v>250.01</v>
       </c>
       <c r="H37">
@@ -3048,19 +2966,19 @@
       <c r="N37">
         <v>91.45</v>
       </c>
+      <c r="O37" t="s">
+        <v>17</v>
+      </c>
       <c r="P37" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38">
         <v>140.15</v>
@@ -3072,8 +2990,7 @@
         <v>84.13</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>288.96000000000004</v>
+        <v>288.95999999999998</v>
       </c>
       <c r="H38">
         <v>15.46</v>
@@ -3096,19 +3013,19 @@
       <c r="N38">
         <v>81.599999999999994</v>
       </c>
+      <c r="O38" t="s">
+        <v>42</v>
+      </c>
       <c r="P38" t="s">
         <v>22</v>
       </c>
-      <c r="Q38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39">
         <v>140.02000000000001</v>
@@ -3120,7 +3037,6 @@
         <v>70.209999999999994</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
         <v>264.97000000000003</v>
       </c>
       <c r="H39">
@@ -3144,19 +3060,19 @@
       <c r="N39">
         <v>76.03</v>
       </c>
+      <c r="O39" t="s">
+        <v>17</v>
+      </c>
       <c r="P39" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40">
         <v>137.15</v>
@@ -3168,7 +3084,6 @@
         <v>65.709999999999994</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
         <v>250.75</v>
       </c>
       <c r="H40">
@@ -3192,19 +3107,19 @@
       <c r="N40">
         <v>80.290000000000006</v>
       </c>
+      <c r="O40" t="s">
+        <v>17</v>
+      </c>
       <c r="P40" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41">
         <v>136.02000000000001</v>
@@ -3216,7 +3131,6 @@
         <v>23.94</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
         <v>216.53</v>
       </c>
       <c r="H41">
@@ -3240,19 +3154,19 @@
       <c r="N41">
         <v>95.25</v>
       </c>
+      <c r="O41" t="s">
+        <v>40</v>
+      </c>
       <c r="P41" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42">
         <v>133.77000000000001</v>
@@ -3264,8 +3178,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
-        <v>221.60000000000002</v>
+        <v>221.6</v>
       </c>
       <c r="H42">
         <v>19.989999999999998</v>
@@ -3288,19 +3201,19 @@
       <c r="N42">
         <v>71.25</v>
       </c>
+      <c r="O42" t="s">
+        <v>40</v>
+      </c>
       <c r="P42" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43">
         <v>133.38</v>
@@ -3312,8 +3225,7 @@
         <v>71.209999999999994</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
-        <v>263.22999999999996</v>
+        <v>263.23</v>
       </c>
       <c r="H43">
         <v>17.05</v>
@@ -3336,19 +3248,19 @@
       <c r="N43">
         <v>77.62</v>
       </c>
+      <c r="O43" t="s">
+        <v>17</v>
+      </c>
       <c r="P43" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44">
         <v>130.09</v>
@@ -3360,7 +3272,6 @@
         <v>61.26</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
         <v>255.63</v>
       </c>
       <c r="H44">
@@ -3384,19 +3295,19 @@
       <c r="N44">
         <v>82.76</v>
       </c>
+      <c r="O44" t="s">
+        <v>17</v>
+      </c>
       <c r="P44" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45">
         <v>129.24</v>
@@ -3408,7 +3319,6 @@
         <v>52.59</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
         <v>233.77</v>
       </c>
       <c r="H45">
@@ -3432,19 +3342,19 @@
       <c r="N45">
         <v>94.18</v>
       </c>
+      <c r="O45" t="s">
+        <v>17</v>
+      </c>
       <c r="P45" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46">
         <v>127.07</v>
@@ -3456,8 +3366,7 @@
         <v>57.77</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
-        <v>245.76000000000002</v>
+        <v>245.76</v>
       </c>
       <c r="H46">
         <v>16.41</v>
@@ -3480,19 +3389,19 @@
       <c r="N46">
         <v>80.48</v>
       </c>
+      <c r="O46" t="s">
+        <v>17</v>
+      </c>
       <c r="P46" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47">
         <v>125.04</v>
@@ -3504,7 +3413,6 @@
         <v>73.510000000000005</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
         <v>260.97000000000003</v>
       </c>
       <c r="H47">
@@ -3528,19 +3436,19 @@
       <c r="N47">
         <v>68.39</v>
       </c>
+      <c r="O47" t="s">
+        <v>42</v>
+      </c>
       <c r="P47" t="s">
         <v>22</v>
       </c>
-      <c r="Q47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48">
         <v>124.9</v>
@@ -3552,7 +3460,6 @@
         <v>46.32</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
         <v>229.68</v>
       </c>
       <c r="H48">
@@ -3576,19 +3483,19 @@
       <c r="N48">
         <v>84.01</v>
       </c>
+      <c r="O48" t="s">
+        <v>40</v>
+      </c>
       <c r="P48" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49">
         <v>124.05</v>
@@ -3600,7 +3507,6 @@
         <v>60.31</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
         <v>249.85</v>
       </c>
       <c r="H49">
@@ -3624,19 +3530,19 @@
       <c r="N49">
         <v>93.8</v>
       </c>
+      <c r="O49" t="s">
+        <v>17</v>
+      </c>
       <c r="P49" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50">
         <v>122.26</v>
@@ -3648,7 +3554,6 @@
         <v>48.56</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
         <v>216.01</v>
       </c>
       <c r="H50">
@@ -3672,19 +3577,19 @@
       <c r="N50">
         <v>98.04</v>
       </c>
+      <c r="O50" t="s">
+        <v>40</v>
+      </c>
       <c r="P50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51">
         <v>122.07</v>
@@ -3696,7 +3601,6 @@
         <v>46.14</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
         <v>212.87</v>
       </c>
       <c r="H51">
@@ -3720,19 +3624,19 @@
       <c r="N51">
         <v>99.48</v>
       </c>
+      <c r="O51" t="s">
+        <v>40</v>
+      </c>
       <c r="P51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52">
         <v>121.14</v>
@@ -3744,7 +3648,6 @@
         <v>75.7</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
         <v>266.12</v>
       </c>
       <c r="H52">
@@ -3768,19 +3671,19 @@
       <c r="N52">
         <v>84.2</v>
       </c>
+      <c r="O52" t="s">
+        <v>17</v>
+      </c>
       <c r="P52" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53">
         <v>118.84</v>
@@ -3792,7 +3695,6 @@
         <v>42.76</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
         <v>219.82</v>
       </c>
       <c r="H53">
@@ -3816,19 +3718,19 @@
       <c r="N53">
         <v>94.51</v>
       </c>
+      <c r="O53" t="s">
+        <v>40</v>
+      </c>
       <c r="P53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54">
         <v>117.98</v>
@@ -3840,7 +3742,6 @@
         <v>44.29</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
         <v>224.38</v>
       </c>
       <c r="H54">
@@ -3864,19 +3765,19 @@
       <c r="N54">
         <v>57.48</v>
       </c>
+      <c r="O54" t="s">
+        <v>42</v>
+      </c>
       <c r="P54" t="s">
         <v>22</v>
       </c>
-      <c r="Q54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55">
         <v>117.34</v>
@@ -3888,7 +3789,6 @@
         <v>66.59</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
         <v>250.08</v>
       </c>
       <c r="H55">
@@ -3912,19 +3812,19 @@
       <c r="N55">
         <v>20.22</v>
       </c>
+      <c r="O55" t="s">
+        <v>42</v>
+      </c>
       <c r="P55" t="s">
         <v>22</v>
       </c>
-      <c r="Q55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56">
         <v>117.23</v>
@@ -3936,7 +3836,6 @@
         <v>61.71</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
         <v>241.84</v>
       </c>
       <c r="H56">
@@ -3960,19 +3859,19 @@
       <c r="N56">
         <v>83.23</v>
       </c>
+      <c r="O56" t="s">
+        <v>17</v>
+      </c>
       <c r="P56" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57">
         <v>114.56</v>
@@ -3984,7 +3883,6 @@
         <v>55.71</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
         <v>241.11</v>
       </c>
       <c r="H57">
@@ -4008,14 +3906,14 @@
       <c r="N57">
         <v>93.24</v>
       </c>
+      <c r="O57" t="s">
+        <v>83</v>
+      </c>
       <c r="P57" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4032,7 +3930,6 @@
         <v>56.08</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
         <v>229.12</v>
       </c>
       <c r="H58">
@@ -4056,14 +3953,14 @@
       <c r="N58">
         <v>67.84</v>
       </c>
+      <c r="O58" t="s">
+        <v>40</v>
+      </c>
       <c r="P58" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4080,7 +3977,6 @@
         <v>59.76</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
         <v>249.94</v>
       </c>
       <c r="H59">
@@ -4104,14 +4000,14 @@
       <c r="N59">
         <v>89.05</v>
       </c>
+      <c r="O59" t="s">
+        <v>37</v>
+      </c>
       <c r="P59" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4128,7 +4024,6 @@
         <v>53.06</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
         <v>227.9</v>
       </c>
       <c r="H60">
@@ -4152,14 +4047,14 @@
       <c r="N60">
         <v>70.69</v>
       </c>
+      <c r="O60" t="s">
+        <v>17</v>
+      </c>
       <c r="P60" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4176,7 +4071,6 @@
         <v>55.37</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
         <v>239.41</v>
       </c>
       <c r="H61">
@@ -4200,14 +4094,14 @@
       <c r="N61">
         <v>65.13</v>
       </c>
+      <c r="O61" t="s">
+        <v>42</v>
+      </c>
       <c r="P61" t="s">
         <v>22</v>
       </c>
-      <c r="Q61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4224,7 +4118,6 @@
         <v>59.13</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
         <v>248.42</v>
       </c>
       <c r="H62">
@@ -4248,14 +4141,14 @@
       <c r="N62">
         <v>76.3</v>
       </c>
+      <c r="O62" t="s">
+        <v>17</v>
+      </c>
       <c r="P62" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4272,7 +4165,6 @@
         <v>59.18</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
         <v>249.7</v>
       </c>
       <c r="H63">
@@ -4296,14 +4188,14 @@
       <c r="N63">
         <v>97.44</v>
       </c>
+      <c r="O63" t="s">
+        <v>17</v>
+      </c>
       <c r="P63" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4320,7 +4212,6 @@
         <v>41.59</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
         <v>194.86</v>
       </c>
       <c r="H64">
@@ -4344,14 +4235,14 @@
       <c r="N64">
         <v>64.37</v>
       </c>
+      <c r="O64" t="s">
+        <v>17</v>
+      </c>
       <c r="P64" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4368,7 +4259,6 @@
         <v>50.93</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
         <v>227.81</v>
       </c>
       <c r="H65">
@@ -4392,14 +4282,14 @@
       <c r="N65">
         <v>90.04</v>
       </c>
+      <c r="O65" t="s">
+        <v>83</v>
+      </c>
       <c r="P65" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4416,7 +4306,6 @@
         <v>32.99</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F97" si="2">SUM(C66:E66)</f>
         <v>193.87</v>
       </c>
       <c r="H66">
@@ -4440,14 +4329,14 @@
       <c r="N66">
         <v>97.15</v>
       </c>
+      <c r="O66" t="s">
+        <v>40</v>
+      </c>
       <c r="P66" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4464,8 +4353,7 @@
         <v>35.86</v>
       </c>
       <c r="F67">
-        <f t="shared" si="2"/>
-        <v>192.47000000000003</v>
+        <v>192.47</v>
       </c>
       <c r="H67">
         <v>19.54</v>
@@ -4488,14 +4376,14 @@
       <c r="N67">
         <v>98.28</v>
       </c>
+      <c r="O67" t="s">
+        <v>40</v>
+      </c>
       <c r="P67" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q67" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4512,7 +4400,6 @@
         <v>70.61</v>
       </c>
       <c r="F68">
-        <f t="shared" si="2"/>
         <v>256.25</v>
       </c>
       <c r="H68">
@@ -4536,14 +4423,14 @@
       <c r="N68">
         <v>78.41</v>
       </c>
+      <c r="O68" t="s">
+        <v>42</v>
+      </c>
       <c r="P68" t="s">
         <v>22</v>
       </c>
-      <c r="Q68" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4560,8 +4447,7 @@
         <v>67.75</v>
       </c>
       <c r="F69">
-        <f t="shared" si="2"/>
-        <v>246.14999999999998</v>
+        <v>246.15</v>
       </c>
       <c r="H69">
         <v>13.46</v>
@@ -4584,14 +4470,14 @@
       <c r="N69">
         <v>91.4</v>
       </c>
+      <c r="O69" t="s">
+        <v>37</v>
+      </c>
       <c r="P69" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4608,7 +4494,6 @@
         <v>42.29</v>
       </c>
       <c r="F70">
-        <f t="shared" si="2"/>
         <v>208.81</v>
       </c>
       <c r="H70">
@@ -4632,14 +4517,14 @@
       <c r="N70">
         <v>88.3</v>
       </c>
+      <c r="O70" t="s">
+        <v>40</v>
+      </c>
       <c r="P70" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4656,8 +4541,7 @@
         <v>60.38</v>
       </c>
       <c r="F71">
-        <f t="shared" si="2"/>
-        <v>225.45999999999998</v>
+        <v>225.46</v>
       </c>
       <c r="H71">
         <v>16.18</v>
@@ -4680,14 +4564,14 @@
       <c r="N71">
         <v>48.95</v>
       </c>
+      <c r="O71" t="s">
+        <v>42</v>
+      </c>
       <c r="P71" t="s">
         <v>22</v>
       </c>
-      <c r="Q71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4704,8 +4588,7 @@
         <v>57.99</v>
       </c>
       <c r="F72">
-        <f t="shared" si="2"/>
-        <v>234.23000000000002</v>
+        <v>234.23</v>
       </c>
       <c r="H72">
         <v>13.57</v>
@@ -4728,14 +4611,14 @@
       <c r="N72">
         <v>70.36</v>
       </c>
+      <c r="O72" t="s">
+        <v>37</v>
+      </c>
       <c r="P72" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4752,7 +4635,6 @@
         <v>60.69</v>
       </c>
       <c r="F73">
-        <f t="shared" si="2"/>
         <v>237.18</v>
       </c>
       <c r="H73">
@@ -4776,14 +4658,14 @@
       <c r="N73">
         <v>69.45</v>
       </c>
+      <c r="O73" t="s">
+        <v>42</v>
+      </c>
       <c r="P73" t="s">
         <v>22</v>
       </c>
-      <c r="Q73" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4800,7 +4682,6 @@
         <v>46.02</v>
       </c>
       <c r="F74">
-        <f t="shared" si="2"/>
         <v>224.71</v>
       </c>
       <c r="H74">
@@ -4824,14 +4705,14 @@
       <c r="N74">
         <v>90.21</v>
       </c>
+      <c r="O74" t="s">
+        <v>40</v>
+      </c>
       <c r="P74" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q74" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4848,7 +4729,6 @@
         <v>53.13</v>
       </c>
       <c r="F75">
-        <f t="shared" si="2"/>
         <v>241.75</v>
       </c>
       <c r="H75">
@@ -4872,14 +4752,14 @@
       <c r="N75">
         <v>94.74</v>
       </c>
+      <c r="O75" t="s">
+        <v>37</v>
+      </c>
       <c r="P75" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4896,7 +4776,6 @@
         <v>78.08</v>
       </c>
       <c r="F76">
-        <f t="shared" si="2"/>
         <v>244.07</v>
       </c>
       <c r="H76">
@@ -4920,14 +4799,14 @@
       <c r="N76">
         <v>83.64</v>
       </c>
+      <c r="O76" t="s">
+        <v>42</v>
+      </c>
       <c r="P76" t="s">
         <v>22</v>
       </c>
-      <c r="Q76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4944,8 +4823,7 @@
         <v>46.55</v>
       </c>
       <c r="F77">
-        <f t="shared" si="2"/>
-        <v>213.72000000000003</v>
+        <v>213.72</v>
       </c>
       <c r="H77">
         <v>13.62</v>
@@ -4968,14 +4846,14 @@
       <c r="N77">
         <v>39.78</v>
       </c>
+      <c r="O77" t="s">
+        <v>37</v>
+      </c>
       <c r="P77" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4992,7 +4870,6 @@
         <v>43.79</v>
       </c>
       <c r="F78">
-        <f t="shared" si="2"/>
         <v>205.67</v>
       </c>
       <c r="H78">
@@ -5016,14 +4893,14 @@
       <c r="N78">
         <v>99.79</v>
       </c>
+      <c r="O78" t="s">
+        <v>83</v>
+      </c>
       <c r="P78" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5040,7 +4917,6 @@
         <v>53.88</v>
       </c>
       <c r="F79">
-        <f t="shared" si="2"/>
         <v>211.41</v>
       </c>
       <c r="H79">
@@ -5064,14 +4940,14 @@
       <c r="N79">
         <v>68.48</v>
       </c>
+      <c r="O79" t="s">
+        <v>42</v>
+      </c>
       <c r="P79" t="s">
         <v>22</v>
       </c>
-      <c r="Q79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5088,7 +4964,6 @@
         <v>54.19</v>
       </c>
       <c r="F80">
-        <f t="shared" si="2"/>
         <v>229.66</v>
       </c>
       <c r="H80">
@@ -5112,14 +4987,14 @@
       <c r="N80">
         <v>71.239999999999995</v>
       </c>
+      <c r="O80" t="s">
+        <v>42</v>
+      </c>
       <c r="P80" t="s">
         <v>22</v>
       </c>
-      <c r="Q80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5136,7 +5011,6 @@
         <v>53.43</v>
       </c>
       <c r="F81">
-        <f t="shared" si="2"/>
         <v>226.94</v>
       </c>
       <c r="H81">
@@ -5160,14 +5034,14 @@
       <c r="N81">
         <v>91.98</v>
       </c>
+      <c r="O81" t="s">
+        <v>83</v>
+      </c>
       <c r="P81" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5184,8 +5058,7 @@
         <v>57.67</v>
       </c>
       <c r="F82">
-        <f t="shared" si="2"/>
-        <v>214.76999999999998</v>
+        <v>214.77</v>
       </c>
       <c r="H82">
         <v>13.63</v>
@@ -5208,14 +5081,14 @@
       <c r="N82">
         <v>69.319999999999993</v>
       </c>
+      <c r="O82" t="s">
+        <v>42</v>
+      </c>
       <c r="P82" t="s">
         <v>22</v>
       </c>
-      <c r="Q82" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5232,8 +5105,7 @@
         <v>32.9</v>
       </c>
       <c r="F83">
-        <f t="shared" si="2"/>
-        <v>196.20000000000002</v>
+        <v>196.2</v>
       </c>
       <c r="H83">
         <v>12.07</v>
@@ -5256,14 +5128,14 @@
       <c r="N83">
         <v>97.69</v>
       </c>
+      <c r="O83" t="s">
+        <v>40</v>
+      </c>
       <c r="P83" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q83" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5280,8 +5152,7 @@
         <v>16.420000000000002</v>
       </c>
       <c r="F84">
-        <f t="shared" si="2"/>
-        <v>169.23000000000002</v>
+        <v>169.23</v>
       </c>
       <c r="H84">
         <v>13.27</v>
@@ -5304,14 +5175,14 @@
       <c r="N84">
         <v>99.93</v>
       </c>
+      <c r="O84" t="s">
+        <v>40</v>
+      </c>
       <c r="P84" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q84" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5328,7 +5199,6 @@
         <v>58.79</v>
       </c>
       <c r="F85">
-        <f t="shared" si="2"/>
         <v>186.85</v>
       </c>
       <c r="H85">
@@ -5352,14 +5222,14 @@
       <c r="N85">
         <v>59.11</v>
       </c>
+      <c r="O85" t="s">
+        <v>42</v>
+      </c>
       <c r="P85" t="s">
         <v>22</v>
       </c>
-      <c r="Q85" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5376,7 +5246,6 @@
         <v>36.549999999999997</v>
       </c>
       <c r="F86">
-        <f t="shared" si="2"/>
         <v>189.13</v>
       </c>
       <c r="H86">
@@ -5400,14 +5269,14 @@
       <c r="N86">
         <v>71.290000000000006</v>
       </c>
+      <c r="O86" t="s">
+        <v>42</v>
+      </c>
       <c r="P86" t="s">
         <v>22</v>
       </c>
-      <c r="Q86" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5424,7 +5293,6 @@
         <v>50.89</v>
       </c>
       <c r="F87">
-        <f t="shared" si="2"/>
         <v>191.18</v>
       </c>
       <c r="H87">
@@ -5448,14 +5316,14 @@
       <c r="N87">
         <v>65.69</v>
       </c>
+      <c r="O87" t="s">
+        <v>37</v>
+      </c>
       <c r="P87" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5472,7 +5340,6 @@
         <v>36.159999999999997</v>
       </c>
       <c r="F88">
-        <f t="shared" si="2"/>
         <v>176.92</v>
       </c>
       <c r="H88">
@@ -5496,15 +5363,14 @@
       <c r="N88">
         <v>60.75</v>
       </c>
+      <c r="O88" t="s">
+        <v>83</v>
+      </c>
       <c r="P88" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="P1:Q88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>